--- a/Problem 2 - Data/itineraries.xlsx
+++ b/Problem 2 - Data/itineraries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thijm\OneDrive\Documents\MSc Aerospace Engineering\Airline Planning &amp; Optimisation\ASSIGNMENT 1\Airline_planning\Problem 2 - Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BD7829-036E-42F0-8B65-855375A3DAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E8ADDE-7BB3-4497-B474-BCC301CCF4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="-15360" windowWidth="13455" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="113">
   <si>
     <t>Itinerary</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>SS3673</t>
+  </si>
+  <si>
+    <t>artificial</t>
   </si>
 </sst>
 </file>
@@ -692,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3418,6 +3421,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>112</v>
+      </c>
+      <c r="F127" s="2">
+        <v>0</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
